--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96373108-7BE0-4407-818E-F55703E1FC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62547514-B243-4336-ADD9-6F3F8465C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4B93A0AD-E904-43D2-B883-816C9F726A75}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B93A0AD-E904-43D2-B883-816C9F726A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Organización" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
   <si>
     <t>TAREA</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Corrección Rombos</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Importación de librería diagramas de flujo</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Automatización Diagramas</t>
   </si>
   <si>
-    <t>Auto.</t>
-  </si>
-  <si>
     <t>Automatización Diagramas de flujo</t>
   </si>
   <si>
@@ -180,13 +174,43 @@
     <t>Creación de matrices</t>
   </si>
   <si>
-    <t>P00106_01_ejemplo1</t>
-  </si>
-  <si>
-    <t>P00106_01_AUTOMATIZACION_v2</t>
-  </si>
-  <si>
     <t>Búsqueda librerías de diagramas de flujo</t>
+  </si>
+  <si>
+    <t>Automatizacion</t>
+  </si>
+  <si>
+    <t>prueba_errores1.py</t>
+  </si>
+  <si>
+    <t>prueba_errores2.py</t>
+  </si>
+  <si>
+    <t>prueba1_Automatizacion_Codigo_Raiz.py</t>
+  </si>
+  <si>
+    <t>prueba2_Automatizacion_Tabla.py</t>
+  </si>
+  <si>
+    <t>prueba3_Automatizacion_Excel.py</t>
+  </si>
+  <si>
+    <t>Generar tabla en pdf con datos de prueba1</t>
+  </si>
+  <si>
+    <t>Crear prueba con numeros aleatorios</t>
+  </si>
+  <si>
+    <t>prueba2_tablaPDF.pdf</t>
+  </si>
+  <si>
+    <t>prueba3_datos_excel.pdf</t>
+  </si>
+  <si>
+    <t>Generar tabla en pdf con datos de este excel</t>
+  </si>
+  <si>
+    <t>Formatear fechas, ignorar fórmulas…</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,20 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -302,22 +313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -326,10 +352,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,7 +364,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,31 +385,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
     <cellStyle name="40% - Énfasis5" xfId="3" builtinId="47"/>
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="4" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,46 +740,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77E0A3-1084-407D-8B5A-33902A0918DC}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -766,7 +790,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -783,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -800,7 +824,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -817,7 +841,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -834,7 +858,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -851,7 +875,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -868,7 +892,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -885,7 +909,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -902,7 +926,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -919,7 +943,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -936,7 +960,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -953,13 +977,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -970,13 +994,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -987,13 +1011,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1004,13 +1028,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1021,13 +1045,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1038,13 +1062,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1055,13 +1079,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1072,68 +1096,172 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1147,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB16F012-53AC-48C5-BB91-BB9D82B423CC}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,33 +1289,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>45397</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="E2" s="2">
@@ -1196,16 +1324,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>45397</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="E3" s="2">
@@ -1214,16 +1342,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>45397</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.625</v>
       </c>
       <c r="E4" s="2">
@@ -1232,16 +1360,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>45398</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.625</v>
       </c>
       <c r="E5" s="2">
@@ -1250,16 +1378,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>45399</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.625</v>
       </c>
       <c r="E6" s="2">
@@ -1268,16 +1396,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>45400</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.35416666666666669</v>
       </c>
       <c r="E7" s="2">
@@ -1286,16 +1414,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>45400</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="E8" s="2">
@@ -1304,16 +1432,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7">
         <v>45401</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.3125</v>
       </c>
       <c r="E9" s="2">
@@ -1322,16 +1450,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>45401</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.3125</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="E10" s="2">
@@ -1340,16 +1468,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>45401</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.35416666666666669</v>
       </c>
       <c r="E11" s="2">
@@ -1358,16 +1486,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7">
         <v>45401</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="2">
@@ -1376,16 +1504,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>45401</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="2">
@@ -1394,16 +1522,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>45401</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.5</v>
       </c>
       <c r="E14" s="2">
@@ -1412,16 +1540,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7">
         <v>45401</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="E15" s="2">
@@ -1430,16 +1558,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
         <v>45404</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="E16" s="2">
@@ -1448,16 +1576,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7">
         <v>45404</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.625</v>
       </c>
       <c r="E17" s="2">
@@ -1466,16 +1594,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7">
         <v>45405</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="E18" s="2">
@@ -1484,22 +1612,35 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>45405</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0.5</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20"/>
+      <c r="D19" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45406</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="D20"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross-my.sharepoint.com/personal/leon_m_enkross_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62547514-B243-4336-ADD9-6F3F8465C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4AA58406-285A-4DD0-83E0-7F7CAD06E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B24CCD5-C5CF-468A-98FF-327E2E31A324}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B93A0AD-E904-43D2-B883-816C9F726A75}"/>
+    <workbookView xWindow="4920" yWindow="1800" windowWidth="21600" windowHeight="12810" activeTab="1" xr2:uid="{4B93A0AD-E904-43D2-B883-816C9F726A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Organización" sheetId="1" r:id="rId1"/>
@@ -217,8 +217,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -355,7 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,9 +369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -395,12 +393,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
@@ -742,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77E0A3-1084-407D-8B5A-33902A0918DC}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +782,7 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -983,7 +986,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1000,7 +1003,7 @@
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1017,7 +1020,7 @@
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1034,7 +1037,7 @@
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1051,7 +1054,7 @@
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1068,7 +1071,7 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1085,7 +1088,7 @@
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1096,13 +1099,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1113,13 +1116,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1130,13 +1133,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1147,13 +1150,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1164,7 +1167,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1181,13 +1184,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1198,13 +1201,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1215,13 +1218,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1232,13 +1235,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1249,13 +1252,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1275,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB16F012-53AC-48C5-BB91-BB9D82B423CC}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,10 +1298,10 @@
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1309,16 +1312,16 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>45397</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="15">
         <v>0.5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="17">
         <f>(D2-C2)*24</f>
         <v>0.99999999999999911</v>
       </c>
@@ -1327,16 +1330,16 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>45397</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="17">
         <f>(D3-C3)*24</f>
         <v>1.0000000000000018</v>
       </c>
@@ -1345,16 +1348,16 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>45397</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="15">
         <v>0.625</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="17">
         <f>(D4-C4)*24</f>
         <v>0.99999999999999911</v>
       </c>
@@ -1363,16 +1366,16 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>45398</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="15">
         <v>0.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="15">
         <v>0.625</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E19" si="0">(D5-C5)*24</f>
         <v>3</v>
       </c>
@@ -1381,16 +1384,16 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>45399</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="15">
         <v>0.625</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1399,16 +1402,16 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>45400</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -1417,16 +1420,16 @@
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>45400</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000000018</v>
       </c>
@@ -1435,212 +1438,213 @@
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>45401</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="15">
         <v>0.3125</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.49999999999999956</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>45401</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="15">
         <v>0.3125</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0.49999999999999956</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>45401</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0.50000000000000089</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>45401</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>45401</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="15">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>0.49999999999999956</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>45401</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="15">
         <v>0.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>45401</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>45404</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>45404</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>0.625</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>45405</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>45405</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="15">
         <v>0.5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="15">
         <v>0.625</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>45406</v>
       </c>
       <c r="C20" s="15">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D20"/>
-      <c r="H20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21"/>
